--- a/Examples/AHP_Lunch/lunchModel_Results.xlsx
+++ b/Examples/AHP_Lunch/lunchModel_Results.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="pairwise_comp" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Graph Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="supermatrix" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="limit matrix" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="limitingPriorities" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="localPriorities" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Sens_1Quality" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sens_2Price" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Sens_3Menu" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Sens_4Speed" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="supermatrix" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="limit matrix" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="limitingPriorities" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="localPriorities" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sens_1Quality" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sens_2Price" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sens_3Menu" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sens_4Speed" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Graph Model" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -316,7 +316,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5029200" cy="2790825"/>
+    <ext cx="5000625" cy="2790825"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -370,6 +370,34 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -390,6 +418,34 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -436,6 +492,34 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -462,6 +546,67 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5000625" cy="2790825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -753,7 +898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1647,9 +1792,23 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J7">
     <cfRule type="dataBar" priority="2">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="12">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1665,9 +1824,23 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I15">
     <cfRule type="dataBar" priority="2">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="12">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1683,9 +1856,23 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:I23">
     <cfRule type="dataBar" priority="2">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="12">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1701,9 +1888,23 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:I31">
     <cfRule type="dataBar" priority="2">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="12">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1719,6 +1920,13 @@
         <color rgb="fff2463a"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="fff2463a"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I39">
     <cfRule type="dataBar" priority="2">
@@ -1728,8 +1936,16 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="12">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1753,21 +1969,365 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="26" t="inlineStr">
+        <is>
+          <t>1Goal</t>
+        </is>
+      </c>
+      <c r="D1" s="26" t="inlineStr">
+        <is>
+          <t>2Criteria</t>
+        </is>
+      </c>
+      <c r="E1" s="27" t="inlineStr"/>
+      <c r="F1" s="27" t="inlineStr"/>
+      <c r="G1" s="27" t="inlineStr"/>
+      <c r="H1" s="26" t="inlineStr">
+        <is>
+          <t>3Alternatives</t>
+        </is>
+      </c>
+      <c r="I1" s="27" t="inlineStr"/>
+      <c r="J1" s="27" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="C2" s="25" t="inlineStr">
+        <is>
+          <t>GoalNode</t>
+        </is>
+      </c>
+      <c r="D2" s="25" t="inlineStr">
+        <is>
+          <t>1Quality</t>
+        </is>
+      </c>
+      <c r="E2" s="25" t="inlineStr">
+        <is>
+          <t>2Price</t>
+        </is>
+      </c>
+      <c r="F2" s="25" t="inlineStr">
+        <is>
+          <t>3Menu</t>
+        </is>
+      </c>
+      <c r="G2" s="25" t="inlineStr">
+        <is>
+          <t>4Speed</t>
+        </is>
+      </c>
+      <c r="H2" s="25" t="inlineStr">
+        <is>
+          <t>1Primanti</t>
+        </is>
+      </c>
+      <c r="I2" s="25" t="inlineStr">
+        <is>
+          <t>2Panera</t>
+        </is>
+      </c>
+      <c r="J2" s="25" t="inlineStr">
+        <is>
+          <t>3Piada</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="inlineStr">
+        <is>
+          <t>1Goal</t>
+        </is>
+      </c>
+      <c r="B3" s="25" t="inlineStr">
+        <is>
+          <t>GoalNode</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="26" t="inlineStr">
+        <is>
+          <t>2Criteria</t>
+        </is>
+      </c>
+      <c r="B4" s="25" t="inlineStr">
+        <is>
+          <t>1Quality</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="inlineStr"/>
+      <c r="B5" s="25" t="inlineStr">
+        <is>
+          <t>2Price</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="27" t="inlineStr"/>
+      <c r="B6" s="25" t="inlineStr">
+        <is>
+          <t>3Menu</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="27" t="inlineStr"/>
+      <c r="B7" s="25" t="inlineStr">
+        <is>
+          <t>4Speed</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="inlineStr">
+        <is>
+          <t>3Alternatives</t>
+        </is>
+      </c>
+      <c r="B8" s="25" t="inlineStr">
+        <is>
+          <t>1Primanti</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="27" t="inlineStr"/>
+      <c r="B9" s="25" t="inlineStr">
+        <is>
+          <t>2Panera</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="27" t="inlineStr"/>
+      <c r="B10" s="25" t="inlineStr">
+        <is>
+          <t>3Piada</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1909,7 +2469,7 @@
         </is>
       </c>
       <c r="C4" s="7" t="n">
-        <v>0.379</v>
+        <v>0.189</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>0</v>
@@ -1941,7 +2501,7 @@
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.189</v>
+        <v>0.095</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>0</v>
@@ -1973,7 +2533,7 @@
         </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>0.217</v>
+        <v>0.108</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>0</v>
@@ -2005,7 +2565,7 @@
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.215</v>
+        <v>0.108</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>0</v>
@@ -2041,7 +2601,7 @@
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>0</v>
+        <v>0.137</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>0.168</v>
@@ -2073,7 +2633,7 @@
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>0</v>
+        <v>0.211</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>0.484</v>
@@ -2105,7 +2665,7 @@
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>0</v>
+        <v>0.151</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>0.349</v>
@@ -2140,7 +2700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2151,345 +2711,113 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
+        <is>
+          <t>Limiting Prior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="26" t="inlineStr">
         <is>
           <t>1Goal</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
-        <is>
-          <t>2Criteria</t>
-        </is>
-      </c>
-      <c r="E1" s="27" t="inlineStr"/>
-      <c r="F1" s="27" t="inlineStr"/>
-      <c r="G1" s="27" t="inlineStr"/>
-      <c r="H1" s="26" t="inlineStr">
-        <is>
-          <t>3Alternatives</t>
-        </is>
-      </c>
-      <c r="I1" s="27" t="inlineStr"/>
-      <c r="J1" s="27" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="C2" s="25" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>GoalNode</t>
         </is>
       </c>
-      <c r="D2" s="25" t="inlineStr">
-        <is>
-          <t>1Quality</t>
-        </is>
-      </c>
-      <c r="E2" s="25" t="inlineStr">
-        <is>
-          <t>2Price</t>
-        </is>
-      </c>
-      <c r="F2" s="25" t="inlineStr">
-        <is>
-          <t>3Menu</t>
-        </is>
-      </c>
-      <c r="G2" s="25" t="inlineStr">
-        <is>
-          <t>4Speed</t>
-        </is>
-      </c>
-      <c r="H2" s="25" t="inlineStr">
-        <is>
-          <t>1Primanti</t>
-        </is>
-      </c>
-      <c r="I2" s="25" t="inlineStr">
-        <is>
-          <t>2Panera</t>
-        </is>
-      </c>
-      <c r="J2" s="25" t="inlineStr">
-        <is>
-          <t>3Piada</t>
-        </is>
+      <c r="C2" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="inlineStr">
         <is>
-          <t>1Goal</t>
+          <t>2Criteria</t>
         </is>
       </c>
       <c r="B3" s="25" t="inlineStr">
         <is>
-          <t>GoalNode</t>
+          <t>1Quality</t>
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>0</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="inlineStr">
-        <is>
-          <t>2Criteria</t>
-        </is>
-      </c>
+      <c r="A4" s="27" t="inlineStr"/>
       <c r="B4" s="25" t="inlineStr">
         <is>
-          <t>1Quality</t>
+          <t>2Price</t>
         </is>
       </c>
       <c r="C4" s="7" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>0</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="27" t="inlineStr"/>
       <c r="B5" s="25" t="inlineStr">
         <is>
-          <t>2Price</t>
+          <t>3Menu</t>
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>0</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="27" t="inlineStr"/>
       <c r="B6" s="25" t="inlineStr">
         <is>
-          <t>3Menu</t>
+          <t>4Speed</t>
         </is>
       </c>
       <c r="C6" s="7" t="n">
         <v>0.108</v>
       </c>
-      <c r="D6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="inlineStr"/>
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>3Alternatives</t>
+        </is>
+      </c>
       <c r="B7" s="25" t="inlineStr">
         <is>
-          <t>4Speed</t>
+          <t>1Primanti</t>
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="n">
-        <v>0</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="inlineStr">
-        <is>
-          <t>3Alternatives</t>
-        </is>
-      </c>
+      <c r="A8" s="27" t="inlineStr"/>
       <c r="B8" s="25" t="inlineStr">
         <is>
-          <t>1Primanti</t>
+          <t>2Panera</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>0.168</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v>0</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="27" t="inlineStr"/>
       <c r="B9" s="25" t="inlineStr">
         <is>
-          <t>2Panera</t>
+          <t>3Piada</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="27" t="inlineStr"/>
-      <c r="B10" s="25" t="inlineStr">
-        <is>
-          <t>3Piada</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
         <v>0.151</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2519,7 +2847,7 @@
     <row r="1">
       <c r="C1" s="25" t="inlineStr">
         <is>
-          <t>Limiting Prior.</t>
+          <t>Local Priorities</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2878,7 @@
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.189</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="4">
@@ -2561,7 +2889,7 @@
         </is>
       </c>
       <c r="C4" s="7" t="n">
-        <v>0.095</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="5">
@@ -2572,7 +2900,7 @@
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.108</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="6">
@@ -2583,7 +2911,7 @@
         </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>0.108</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="7">
@@ -2598,7 +2926,7 @@
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.137</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="8">
@@ -2609,7 +2937,7 @@
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>0.211</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="9">
@@ -2620,7 +2948,7 @@
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>0.151</v>
+        <v>0.302</v>
       </c>
     </row>
   </sheetData>
@@ -2629,133 +2957,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="C1" s="25" t="inlineStr">
-        <is>
-          <t>Local Priorities</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="26" t="inlineStr">
-        <is>
-          <t>1Goal</t>
-        </is>
-      </c>
-      <c r="B2" s="25" t="inlineStr">
-        <is>
-          <t>GoalNode</t>
-        </is>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="26" t="inlineStr">
-        <is>
-          <t>2Criteria</t>
-        </is>
-      </c>
-      <c r="B3" s="25" t="inlineStr">
-        <is>
-          <t>1Quality</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>0.379</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="27" t="inlineStr"/>
-      <c r="B4" s="25" t="inlineStr">
-        <is>
-          <t>2Price</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>0.189</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="27" t="inlineStr"/>
-      <c r="B5" s="25" t="inlineStr">
-        <is>
-          <t>3Menu</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="27" t="inlineStr"/>
-      <c r="B6" s="25" t="inlineStr">
-        <is>
-          <t>4Speed</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>0.215</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="26" t="inlineStr">
-        <is>
-          <t>3Alternatives</t>
-        </is>
-      </c>
-      <c r="B7" s="25" t="inlineStr">
-        <is>
-          <t>1Primanti</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>0.275</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="27" t="inlineStr"/>
-      <c r="B8" s="25" t="inlineStr">
-        <is>
-          <t>2Panera</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>0.423</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="27" t="inlineStr"/>
-      <c r="B9" s="25" t="inlineStr">
-        <is>
-          <t>3Piada</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>0.302</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Examples/AHP_Lunch/lunchModel_Results.xlsx
+++ b/Examples/AHP_Lunch/lunchModel_Results.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="pairwise_comp" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="supermatrix" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="limit matrix" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="limitingPriorities" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="localPriorities" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Sens_1Quality" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Sens_2Price" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sens_3Menu" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Sens_4Speed" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Graph Model" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Graph Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="supermatrix" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="limit matrix" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="limitingPriorities" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="localPriorities" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sens_1Quality" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sens_2Price" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sens_3Menu" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Sens_4Speed" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Graph Model1" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -898,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1945,7 +1946,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1968,366 +1968,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="C1" s="26" t="inlineStr">
-        <is>
-          <t>1Goal</t>
-        </is>
-      </c>
-      <c r="D1" s="26" t="inlineStr">
-        <is>
-          <t>2Criteria</t>
-        </is>
-      </c>
-      <c r="E1" s="27" t="inlineStr"/>
-      <c r="F1" s="27" t="inlineStr"/>
-      <c r="G1" s="27" t="inlineStr"/>
-      <c r="H1" s="26" t="inlineStr">
-        <is>
-          <t>3Alternatives</t>
-        </is>
-      </c>
-      <c r="I1" s="27" t="inlineStr"/>
-      <c r="J1" s="27" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="C2" s="25" t="inlineStr">
-        <is>
-          <t>GoalNode</t>
-        </is>
-      </c>
-      <c r="D2" s="25" t="inlineStr">
-        <is>
-          <t>1Quality</t>
-        </is>
-      </c>
-      <c r="E2" s="25" t="inlineStr">
-        <is>
-          <t>2Price</t>
-        </is>
-      </c>
-      <c r="F2" s="25" t="inlineStr">
-        <is>
-          <t>3Menu</t>
-        </is>
-      </c>
-      <c r="G2" s="25" t="inlineStr">
-        <is>
-          <t>4Speed</t>
-        </is>
-      </c>
-      <c r="H2" s="25" t="inlineStr">
-        <is>
-          <t>1Primanti</t>
-        </is>
-      </c>
-      <c r="I2" s="25" t="inlineStr">
-        <is>
-          <t>2Panera</t>
-        </is>
-      </c>
-      <c r="J2" s="25" t="inlineStr">
-        <is>
-          <t>3Piada</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="26" t="inlineStr">
-        <is>
-          <t>1Goal</t>
-        </is>
-      </c>
-      <c r="B3" s="25" t="inlineStr">
-        <is>
-          <t>GoalNode</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="26" t="inlineStr">
-        <is>
-          <t>2Criteria</t>
-        </is>
-      </c>
-      <c r="B4" s="25" t="inlineStr">
-        <is>
-          <t>1Quality</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>0.379</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="27" t="inlineStr"/>
-      <c r="B5" s="25" t="inlineStr">
-        <is>
-          <t>2Price</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="27" t="inlineStr"/>
-      <c r="B6" s="25" t="inlineStr">
-        <is>
-          <t>3Menu</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="27" t="inlineStr"/>
-      <c r="B7" s="25" t="inlineStr">
-        <is>
-          <t>4Speed</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="26" t="inlineStr">
-        <is>
-          <t>3Alternatives</t>
-        </is>
-      </c>
-      <c r="B8" s="25" t="inlineStr">
-        <is>
-          <t>1Primanti</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>0.168</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="27" t="inlineStr"/>
-      <c r="B9" s="25" t="inlineStr">
-        <is>
-          <t>2Panera</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="27" t="inlineStr"/>
-      <c r="B10" s="25" t="inlineStr">
-        <is>
-          <t>3Piada</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2469,7 +2144,7 @@
         </is>
       </c>
       <c r="C4" s="7" t="n">
-        <v>0.189</v>
+        <v>0.379</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>0</v>
@@ -2501,7 +2176,7 @@
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.095</v>
+        <v>0.189</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>0</v>
@@ -2533,7 +2208,7 @@
         </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>0.108</v>
+        <v>0.217</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>0</v>
@@ -2565,7 +2240,7 @@
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.108</v>
+        <v>0.215</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>0</v>
@@ -2601,7 +2276,7 @@
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>0.168</v>
@@ -2633,7 +2308,7 @@
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>0.211</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>0.484</v>
@@ -2665,7 +2340,7 @@
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>0.151</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>0.349</v>
@@ -2700,7 +2375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2711,113 +2386,345 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="25" t="inlineStr">
-        <is>
-          <t>Limiting Prior.</t>
-        </is>
-      </c>
+      <c r="C1" s="26" t="inlineStr">
+        <is>
+          <t>1Goal</t>
+        </is>
+      </c>
+      <c r="D1" s="26" t="inlineStr">
+        <is>
+          <t>2Criteria</t>
+        </is>
+      </c>
+      <c r="E1" s="27" t="inlineStr"/>
+      <c r="F1" s="27" t="inlineStr"/>
+      <c r="G1" s="27" t="inlineStr"/>
+      <c r="H1" s="26" t="inlineStr">
+        <is>
+          <t>3Alternatives</t>
+        </is>
+      </c>
+      <c r="I1" s="27" t="inlineStr"/>
+      <c r="J1" s="27" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="inlineStr">
-        <is>
-          <t>1Goal</t>
-        </is>
-      </c>
-      <c r="B2" s="25" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>GoalNode</t>
         </is>
       </c>
-      <c r="C2" s="7" t="n">
-        <v>0</v>
+      <c r="D2" s="25" t="inlineStr">
+        <is>
+          <t>1Quality</t>
+        </is>
+      </c>
+      <c r="E2" s="25" t="inlineStr">
+        <is>
+          <t>2Price</t>
+        </is>
+      </c>
+      <c r="F2" s="25" t="inlineStr">
+        <is>
+          <t>3Menu</t>
+        </is>
+      </c>
+      <c r="G2" s="25" t="inlineStr">
+        <is>
+          <t>4Speed</t>
+        </is>
+      </c>
+      <c r="H2" s="25" t="inlineStr">
+        <is>
+          <t>1Primanti</t>
+        </is>
+      </c>
+      <c r="I2" s="25" t="inlineStr">
+        <is>
+          <t>2Panera</t>
+        </is>
+      </c>
+      <c r="J2" s="25" t="inlineStr">
+        <is>
+          <t>3Piada</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="inlineStr">
         <is>
+          <t>1Goal</t>
+        </is>
+      </c>
+      <c r="B3" s="25" t="inlineStr">
+        <is>
+          <t>GoalNode</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="26" t="inlineStr">
+        <is>
           <t>2Criteria</t>
         </is>
       </c>
-      <c r="B3" s="25" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>1Quality</t>
         </is>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C4" s="7" t="n">
         <v>0.189</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="27" t="inlineStr"/>
-      <c r="B4" s="25" t="inlineStr">
-        <is>
-          <t>2Price</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>0.095</v>
+      <c r="D4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="27" t="inlineStr"/>
       <c r="B5" s="25" t="inlineStr">
         <is>
-          <t>3Menu</t>
+          <t>2Price</t>
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.108</v>
+        <v>0.095</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="27" t="inlineStr"/>
       <c r="B6" s="25" t="inlineStr">
         <is>
-          <t>4Speed</t>
+          <t>3Menu</t>
         </is>
       </c>
       <c r="C6" s="7" t="n">
         <v>0.108</v>
       </c>
+      <c r="D6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="26" t="inlineStr">
+      <c r="A7" s="27" t="inlineStr"/>
+      <c r="B7" s="25" t="inlineStr">
+        <is>
+          <t>4Speed</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="inlineStr">
         <is>
           <t>3Alternatives</t>
         </is>
       </c>
-      <c r="B7" s="25" t="inlineStr">
+      <c r="B8" s="25" t="inlineStr">
         <is>
           <t>1Primanti</t>
         </is>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C8" s="7" t="n">
         <v>0.137</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="27" t="inlineStr"/>
-      <c r="B8" s="25" t="inlineStr">
-        <is>
-          <t>2Panera</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>0.211</v>
+      <c r="D8" s="7" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="27" t="inlineStr"/>
       <c r="B9" s="25" t="inlineStr">
         <is>
+          <t>2Panera</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="27" t="inlineStr"/>
+      <c r="B10" s="25" t="inlineStr">
+        <is>
           <t>3Piada</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C10" s="7" t="n">
         <v>0.151</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +2754,7 @@
     <row r="1">
       <c r="C1" s="25" t="inlineStr">
         <is>
-          <t>Local Priorities</t>
+          <t>Limiting Prior.</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2785,7 @@
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.379</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="4">
@@ -2889,7 +2796,7 @@
         </is>
       </c>
       <c r="C4" s="7" t="n">
-        <v>0.189</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="5">
@@ -2900,7 +2807,7 @@
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.217</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="6">
@@ -2911,7 +2818,7 @@
         </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>0.215</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="7">
@@ -2926,7 +2833,7 @@
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.275</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="8">
@@ -2937,7 +2844,7 @@
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>0.423</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="9">
@@ -2948,7 +2855,7 @@
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>0.302</v>
+        <v>0.151</v>
       </c>
     </row>
   </sheetData>
@@ -2957,21 +2864,133 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="25" t="inlineStr">
+        <is>
+          <t>Local Priorities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="26" t="inlineStr">
+        <is>
+          <t>1Goal</t>
+        </is>
+      </c>
+      <c r="B2" s="25" t="inlineStr">
+        <is>
+          <t>GoalNode</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="inlineStr">
+        <is>
+          <t>2Criteria</t>
+        </is>
+      </c>
+      <c r="B3" s="25" t="inlineStr">
+        <is>
+          <t>1Quality</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="27" t="inlineStr"/>
+      <c r="B4" s="25" t="inlineStr">
+        <is>
+          <t>2Price</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="inlineStr"/>
+      <c r="B5" s="25" t="inlineStr">
+        <is>
+          <t>3Menu</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="27" t="inlineStr"/>
+      <c r="B6" s="25" t="inlineStr">
+        <is>
+          <t>4Speed</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>3Alternatives</t>
+        </is>
+      </c>
+      <c r="B7" s="25" t="inlineStr">
+        <is>
+          <t>1Primanti</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="27" t="inlineStr"/>
+      <c r="B8" s="25" t="inlineStr">
+        <is>
+          <t>2Panera</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>0.423</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="27" t="inlineStr"/>
+      <c r="B9" s="25" t="inlineStr">
+        <is>
+          <t>3Piada</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>0.302</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
